--- a/tables/DE/SDE_rand_1_bin_F_09_Cr_09_pop50/DE_table2_F7_dim10.xlsx
+++ b/tables/DE/SDE_rand_1_bin_F_09_Cr_09_pop50/DE_table2_F7_dim10.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>243.58252752</v>
       </c>
       <c r="AZ2" t="n">
-        <v>199.31426574</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>236.36986819</v>
+        <v>237.11098024</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>245.20157129</v>
@@ -1011,15 +1002,12 @@
         <v>243.58252752</v>
       </c>
       <c r="AZ3" t="n">
-        <v>199.31426574</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>223.68067088</v>
+        <v>224.16799898</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>20</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>112.0459125</v>
@@ -1172,15 +1160,12 @@
         <v>76.51706993000001</v>
       </c>
       <c r="AZ4" t="n">
-        <v>127.4998541</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>115.84441485</v>
+        <v>115.61130607</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>200</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>11.74150947</v>
@@ -1333,15 +1318,12 @@
         <v>9.18083157</v>
       </c>
       <c r="AZ5" t="n">
-        <v>5.81641906</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>6.23370736</v>
+        <v>6.24205313</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>400</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>1.22251897</v>
@@ -1494,15 +1476,12 @@
         <v>1.29464829</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.8024090699999999</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>1.09014003</v>
+        <v>1.09589465</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>599</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>0.78021181</v>
@@ -1655,15 +1634,12 @@
         <v>0.5877399800000001</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.65743907</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0.70105152</v>
+        <v>0.7019237699999999</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>799</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>0.65234571</v>
@@ -1816,15 +1792,12 @@
         <v>0.5877399800000001</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.6558771</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0.6445404300000001</v>
+        <v>0.6443137</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>999</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>0.59977084</v>
@@ -1977,15 +1950,12 @@
         <v>0.5877399800000001</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.6558771</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>0.61425336</v>
+        <v>0.61342089</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>1199</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>0.59977084</v>
@@ -2138,15 +2108,12 @@
         <v>0.5877399800000001</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.6558771</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0.55978693</v>
+        <v>0.55786512</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>1399</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>0.59977084</v>
@@ -2299,15 +2266,12 @@
         <v>0.55427854</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.6558771</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>0.49996149</v>
+        <v>0.49684318</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>1598</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>0.59740054</v>
@@ -2460,15 +2424,12 @@
         <v>0.09146994999999999</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.64262804</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>0.42945238</v>
+        <v>0.42518887</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>1798</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>0.59740054</v>
@@ -2621,15 +2582,12 @@
         <v>0.05977239</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.64262804</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0.35849699</v>
+        <v>0.35281437</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>1998</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>0.59740054</v>
@@ -2782,10 +2740,7 @@
         <v>0.05214142</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.64262804</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0.28528363</v>
+        <v>0.27813674</v>
       </c>
     </row>
   </sheetData>
